--- a/Invoice Scraping/data_folder/JoeyTribbiani_281092.xlsx
+++ b/Invoice Scraping/data_folder/JoeyTribbiani_281092.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_projects\Invoice Scraping\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF68CA2-099E-47C3-965A-CF78CC28DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2C283B-6001-4554-BEC7-14A508D7441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{B4D9DFF1-BE2B-4FAE-9EA3-731CC5308418}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{59AAD6C6-9537-450F-99C6-B742EDBFA3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,28 @@
     <t>InvoiceDate</t>
   </si>
   <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Oct 01, 2020</t>
   </si>
   <si>
-    <t>ItemNo</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -482,8 +482,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E41E5-EA6F-4C0D-AE24-3EFFBB972020}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D88D58-A9FE-4517-B506-3C8F498A05DA}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,25 +497,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -523,404 +540,385 @@
         <v>281092</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7800</v>
+      </c>
+      <c r="G4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7800</v>
+      </c>
+      <c r="G14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1500</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2700</v>
+      </c>
+      <c r="G19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>900</v>
-      </c>
-      <c r="E5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7800</v>
-      </c>
-      <c r="E6">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2100</v>
+      </c>
+      <c r="G23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1500</v>
-      </c>
-      <c r="E7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>2000</v>
       </c>
-      <c r="E10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>18360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>600</v>
-      </c>
-      <c r="E14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>900</v>
-      </c>
-      <c r="E15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>7800</v>
-      </c>
-      <c r="E16">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1500</v>
-      </c>
-      <c r="E17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>600</v>
-      </c>
-      <c r="E18">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1500</v>
-      </c>
-      <c r="E19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2700</v>
-      </c>
-      <c r="E21">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-      <c r="E22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>800</v>
-      </c>
-      <c r="E23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2100</v>
-      </c>
-      <c r="E25">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1000</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>300</v>
-      </c>
-      <c r="E27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2000</v>
-      </c>
-      <c r="E28">
+      <c r="G26">
         <v>2000</v>
       </c>
     </row>
